--- a/data/trans_orig/P17E-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P17E-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>14542</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8278</v>
+        <v>8876</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22056</v>
+        <v>21782</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.259398078887761</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1476608130396058</v>
+        <v>0.1583352390119241</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3934300147282336</v>
+        <v>0.3885335981344374</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>17</v>
@@ -765,19 +765,19 @@
         <v>16861</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10029</v>
+        <v>10905</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>24609</v>
+        <v>25413</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1984659453140607</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1180563215626055</v>
+        <v>0.128360546602577</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2896757059185147</v>
+        <v>0.2991398213802095</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>31</v>
@@ -786,19 +786,19 @@
         <v>31403</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>22357</v>
+        <v>22183</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>41793</v>
+        <v>42278</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2226896866751064</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1585390943062392</v>
+        <v>0.1573114735882651</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2963699705436398</v>
+        <v>0.2998128190155135</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>41519</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>34005</v>
+        <v>34279</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>47783</v>
+        <v>47185</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7406019211122391</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6065699852717668</v>
+        <v>0.6114664018655627</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.852339186960395</v>
+        <v>0.841664760988076</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>71</v>
@@ -836,19 +836,19 @@
         <v>68094</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>60346</v>
+        <v>59542</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>74926</v>
+        <v>74050</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8015340546859393</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7103242940814853</v>
+        <v>0.7008601786197906</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8819436784373944</v>
+        <v>0.871639453397423</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>112</v>
@@ -857,19 +857,19 @@
         <v>109613</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>99223</v>
+        <v>98738</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>118659</v>
+        <v>118833</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7773103133248936</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7036300294563601</v>
+        <v>0.7001871809844865</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8414609056937608</v>
+        <v>0.8426885264117348</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>16798</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10202</v>
+        <v>10256</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>26462</v>
+        <v>24992</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2305841796912409</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1400486566862599</v>
+        <v>0.1407816942487268</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.363240712316089</v>
+        <v>0.343071546417188</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>41</v>
@@ -982,19 +982,19 @@
         <v>43539</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>32220</v>
+        <v>33729</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>55550</v>
+        <v>56759</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2891616772135558</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2139876210317572</v>
+        <v>0.2240098732502238</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3689332114182752</v>
+        <v>0.3769591769659044</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>57</v>
@@ -1003,19 +1003,19 @@
         <v>60337</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>45952</v>
+        <v>47642</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>73679</v>
+        <v>73947</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.270061567980083</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2056759235355726</v>
+        <v>0.2132410714071773</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3297779219895621</v>
+        <v>0.33097655634919</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>56051</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>46387</v>
+        <v>47857</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>62647</v>
+        <v>62593</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7694158203087591</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6367592876839109</v>
+        <v>0.6569284535828114</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8599513433137401</v>
+        <v>0.8592183057512731</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>101</v>
@@ -1053,19 +1053,19 @@
         <v>107031</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>95020</v>
+        <v>93811</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>118350</v>
+        <v>116841</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7108383227864442</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6310667885817244</v>
+        <v>0.6230408230340964</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7860123789682424</v>
+        <v>0.7759901267497764</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>156</v>
@@ -1074,19 +1074,19 @@
         <v>163083</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>149741</v>
+        <v>149473</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>177468</v>
+        <v>175778</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.729938432019917</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6702220780104375</v>
+        <v>0.66902344365081</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7943240764644274</v>
+        <v>0.7867589285928227</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>22153</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13607</v>
+        <v>14296</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>30708</v>
+        <v>30884</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2341435039325772</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1438136823187189</v>
+        <v>0.1510993038137205</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3245689266357665</v>
+        <v>0.3264286192835232</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>42</v>
@@ -1199,19 +1199,19 @@
         <v>42813</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>32152</v>
+        <v>32955</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>54608</v>
+        <v>55958</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2306308970277692</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1731999917019958</v>
+        <v>0.1775241042284852</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2941697492840165</v>
+        <v>0.3014440276598978</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>63</v>
@@ -1220,19 +1220,19 @@
         <v>64966</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>50845</v>
+        <v>51762</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>79031</v>
+        <v>80213</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2318167620902011</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1814288492223581</v>
+        <v>0.1847037280877294</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2820055494210388</v>
+        <v>0.2862248095318627</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>72459</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>63904</v>
+        <v>63728</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>81005</v>
+        <v>80316</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7658564960674228</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6754310733642335</v>
+        <v>0.6735713807164768</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8561863176812811</v>
+        <v>0.8489006961862794</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>136</v>
@@ -1270,19 +1270,19 @@
         <v>142821</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>131026</v>
+        <v>129676</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>153482</v>
+        <v>152679</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7693691029722308</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7058302507159835</v>
+        <v>0.6985559723401024</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8268000082980039</v>
+        <v>0.8224758957715148</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>204</v>
@@ -1291,19 +1291,19 @@
         <v>215280</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>201215</v>
+        <v>200033</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>229401</v>
+        <v>228484</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7681832379097989</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7179944505789613</v>
+        <v>0.7137751904681373</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.818571150777642</v>
+        <v>0.8152962719122707</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>21698</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14005</v>
+        <v>14599</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>31187</v>
+        <v>30455</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2664552388536371</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1719890901036669</v>
+        <v>0.1792808236597047</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3829796775778949</v>
+        <v>0.3739983723610725</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>39</v>
@@ -1416,19 +1416,19 @@
         <v>41299</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>31277</v>
+        <v>31485</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>52351</v>
+        <v>53063</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2800592753387712</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2120998342971266</v>
+        <v>0.2135082891845271</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3550118984309119</v>
+        <v>0.3598378932092043</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>60</v>
@@ -1437,19 +1437,19 @@
         <v>62997</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>50517</v>
+        <v>49732</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>76598</v>
+        <v>77452</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2752194970831873</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2206978392375087</v>
+        <v>0.2172669546088764</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3346381883635615</v>
+        <v>0.3383711001144142</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>59734</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>50245</v>
+        <v>50977</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>67427</v>
+        <v>66833</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7335447611463629</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6170203224221052</v>
+        <v>0.6260016276389273</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8280109098963331</v>
+        <v>0.820719176340295</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>104</v>
@@ -1487,19 +1487,19 @@
         <v>106165</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>95113</v>
+        <v>94401</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>116187</v>
+        <v>115979</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7199407246612287</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.644988101569088</v>
+        <v>0.6401621067907955</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7879001657028734</v>
+        <v>0.7864917108154729</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>160</v>
@@ -1508,19 +1508,19 @@
         <v>165900</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>152299</v>
+        <v>151445</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>178380</v>
+        <v>179165</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7247805029168127</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6653618116364385</v>
+        <v>0.6616288998855858</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7793021607624913</v>
+        <v>0.7827330453911236</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>17784</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10907</v>
+        <v>11542</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>26998</v>
+        <v>26858</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1408886123149764</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08640739160644906</v>
+        <v>0.09143850031616017</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2138763481507644</v>
+        <v>0.2127729338166864</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>35</v>
@@ -1633,19 +1633,19 @@
         <v>36979</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>26725</v>
+        <v>26870</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>48238</v>
+        <v>47666</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2461234939362432</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1778745547498404</v>
+        <v>0.1788369877462755</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3210628882385244</v>
+        <v>0.3172498391578654</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>54</v>
@@ -1654,19 +1654,19 @@
         <v>54763</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>41552</v>
+        <v>43943</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>68292</v>
+        <v>69694</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1980768145626514</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1502900642890842</v>
+        <v>0.1589392600385015</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2470083046469304</v>
+        <v>0.2520784927611472</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>108446</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>99232</v>
+        <v>99372</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>115323</v>
+        <v>114688</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8591113876850236</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7861236518492359</v>
+        <v>0.7872270661833141</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9135926083935513</v>
+        <v>0.9085614996838399</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>114</v>
@@ -1704,19 +1704,19 @@
         <v>113267</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>102008</v>
+        <v>102580</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>123521</v>
+        <v>123376</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7538765060637568</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6789371117614755</v>
+        <v>0.6827501608421345</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8221254452501595</v>
+        <v>0.8211630122537246</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>224</v>
@@ -1725,19 +1725,19 @@
         <v>221713</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>208184</v>
+        <v>206782</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>234924</v>
+        <v>232533</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8019231854373486</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7529916953530696</v>
+        <v>0.7479215072388528</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8497099357109159</v>
+        <v>0.8410607399614987</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>27494</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>18445</v>
+        <v>18369</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>37093</v>
+        <v>37184</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2037778839976076</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1367084639411279</v>
+        <v>0.1361452192907863</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2749248723811889</v>
+        <v>0.2755927818338106</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>19</v>
@@ -1850,19 +1850,19 @@
         <v>17989</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>11077</v>
+        <v>11015</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>27149</v>
+        <v>26711</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1115008227706304</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06865584386914553</v>
+        <v>0.0682716127659283</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1682763146529842</v>
+        <v>0.1655598016995478</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>47</v>
@@ -1871,19 +1871,19 @@
         <v>45483</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>34438</v>
+        <v>34210</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>59044</v>
+        <v>58823</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1535256191156888</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1162416034624311</v>
+        <v>0.1154740309317297</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1993001965775654</v>
+        <v>0.1985534946132005</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>107428</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>97829</v>
+        <v>97738</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>116477</v>
+        <v>116553</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7962221160023923</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.725075127618811</v>
+        <v>0.7244072181661894</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8632915360588721</v>
+        <v>0.8638547807092142</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>156</v>
@@ -1921,19 +1921,19 @@
         <v>143348</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>134188</v>
+        <v>134626</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>150260</v>
+        <v>150322</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8884991772293697</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8317236853470168</v>
+        <v>0.8344401983004522</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9313441561308545</v>
+        <v>0.9317283872340717</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>268</v>
@@ -1942,19 +1942,19 @@
         <v>250776</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>237215</v>
+        <v>237436</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>261821</v>
+        <v>262049</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8464743808843112</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8006998034224346</v>
+        <v>0.8014465053868002</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8837583965375689</v>
+        <v>0.8845259690682704</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>9901</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5410</v>
+        <v>5436</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>16420</v>
+        <v>17077</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1062441427621504</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0580527549349053</v>
+        <v>0.05832942876174122</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1761895500344372</v>
+        <v>0.1832408510848732</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>9</v>
@@ -2067,19 +2067,19 @@
         <v>11374</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5673</v>
+        <v>5657</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>19800</v>
+        <v>20674</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06763517729159876</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03373475718654755</v>
+        <v>0.03363816283021004</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1177433660446939</v>
+        <v>0.1229422398454052</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>20</v>
@@ -2088,19 +2088,19 @@
         <v>21275</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>13178</v>
+        <v>13812</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>32544</v>
+        <v>32071</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08140234550484314</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05042148516260686</v>
+        <v>0.05284763231222309</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1245184592895077</v>
+        <v>0.1227092020642948</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>83294</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>76775</v>
+        <v>76118</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>87785</v>
+        <v>87759</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8937558572378496</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.823810449965563</v>
+        <v>0.8167591489151268</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9419472450650948</v>
+        <v>0.9416705712382587</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>138</v>
@@ -2138,19 +2138,19 @@
         <v>156789</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>148363</v>
+        <v>147489</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>162490</v>
+        <v>162506</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9323648227084013</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8822566339553061</v>
+        <v>0.8770577601545948</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9662652428134524</v>
+        <v>0.96636183716979</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>227</v>
@@ -2159,19 +2159,19 @@
         <v>240083</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>228814</v>
+        <v>229287</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>248180</v>
+        <v>247546</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9185976544951568</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8754815407104924</v>
+        <v>0.8772907979357052</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9495785148373932</v>
+        <v>0.9471523676877769</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>130371</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>112921</v>
+        <v>110486</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>154422</v>
+        <v>150898</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1977408233790627</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1712729251392037</v>
+        <v>0.1675802193453685</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2342203889680147</v>
+        <v>0.2288753790743633</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>202</v>
@@ -2284,19 +2284,19 @@
         <v>210854</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>187173</v>
+        <v>185204</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>238209</v>
+        <v>236783</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.201125216867155</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1785368794246313</v>
+        <v>0.176659003874954</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2272182149675497</v>
+        <v>0.2258585717630131</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>332</v>
@@ -2305,19 +2305,19 @@
         <v>341225</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>311716</v>
+        <v>310393</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>376730</v>
+        <v>375671</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1998185624610324</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1825387580403621</v>
+        <v>0.181763663909125</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2206105094917492</v>
+        <v>0.2199903260549481</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>528931</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>504880</v>
+        <v>508404</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>546381</v>
+        <v>548816</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8022591766209373</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7657796110319857</v>
+        <v>0.7711246209256369</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8287270748607963</v>
+        <v>0.8324197806546316</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>820</v>
@@ -2355,19 +2355,19 @@
         <v>837516</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>810161</v>
+        <v>811587</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>861197</v>
+        <v>863166</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.798874783132845</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7727817850324504</v>
+        <v>0.774141428236987</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8214631205753687</v>
+        <v>0.8233409961250461</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1351</v>
@@ -2376,19 +2376,19 @@
         <v>1366447</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1330942</v>
+        <v>1332001</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1395956</v>
+        <v>1397279</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8001814375389675</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7793894905082508</v>
+        <v>0.7800096739450521</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.817461241959638</v>
+        <v>0.818236336090875</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>7891</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3177</v>
+        <v>3061</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15380</v>
+        <v>14552</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1338740850530521</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05390265160095075</v>
+        <v>0.05193338598137369</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2609334092118398</v>
+        <v>0.2468828301297501</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>22</v>
@@ -2744,19 +2744,19 @@
         <v>21851</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13863</v>
+        <v>14537</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>30108</v>
+        <v>30515</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2224496988016216</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1411329415318286</v>
+        <v>0.1479936518452258</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.306506063975843</v>
+        <v>0.3106471245739144</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>29</v>
@@ -2765,19 +2765,19 @@
         <v>29742</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>21655</v>
+        <v>20564</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>42034</v>
+        <v>41927</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1892319668877472</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1377803328952772</v>
+        <v>0.1308374525240252</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2674371282877714</v>
+        <v>0.266758081587322</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>51053</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>43564</v>
+        <v>44392</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>55767</v>
+        <v>55883</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8661259149469479</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7390665907881602</v>
+        <v>0.7531171698702499</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9460973483990491</v>
+        <v>0.9480666140186262</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>73</v>
@@ -2815,19 +2815,19 @@
         <v>76379</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>68122</v>
+        <v>67715</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>84367</v>
+        <v>83693</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7775503011983784</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6934939360241561</v>
+        <v>0.6893528754260856</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8588670584681715</v>
+        <v>0.8520063481547744</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>124</v>
@@ -2836,19 +2836,19 @@
         <v>127432</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>115140</v>
+        <v>115247</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>135519</v>
+        <v>136610</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8107680331122528</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7325628717122286</v>
+        <v>0.7332419184126778</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8622196671047228</v>
+        <v>0.8691625474759749</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>22564</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>14316</v>
+        <v>13971</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>31215</v>
+        <v>31714</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2250398706238289</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1427827102504006</v>
+        <v>0.1393427017294651</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3113296530441672</v>
+        <v>0.316306308026393</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>32</v>
@@ -2961,19 +2961,19 @@
         <v>34635</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>24901</v>
+        <v>24201</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>46396</v>
+        <v>46694</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2110765774023026</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1517550262651337</v>
+        <v>0.1474915891506873</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2827539357202622</v>
+        <v>0.2845688690588075</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>54</v>
@@ -2982,19 +2982,19 @@
         <v>57198</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>44438</v>
+        <v>43835</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>71288</v>
+        <v>70625</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2163726774926147</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1681030445604032</v>
+        <v>0.1658204073681355</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2696729153491365</v>
+        <v>0.2671649144149725</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>77701</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>69050</v>
+        <v>68551</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>85949</v>
+        <v>86294</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7749601293761711</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6886703469558327</v>
+        <v>0.6836936919736083</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8572172897495991</v>
+        <v>0.8606572982705349</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>123</v>
@@ -3032,19 +3032,19 @@
         <v>129451</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>117690</v>
+        <v>117392</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>139185</v>
+        <v>139885</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7889234225976974</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7172460642797378</v>
+        <v>0.7154311309411925</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8482449737348664</v>
+        <v>0.8525084108493127</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>198</v>
@@ -3053,19 +3053,19 @@
         <v>207153</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>193063</v>
+        <v>193726</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>219913</v>
+        <v>220516</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7836273225073852</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7303270846508635</v>
+        <v>0.7328350855850276</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8318969554395969</v>
+        <v>0.8341795926318647</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>26405</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>17713</v>
+        <v>17439</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>36661</v>
+        <v>36882</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2056725482397441</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1379708847954943</v>
+        <v>0.1358341612383442</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2855639610613621</v>
+        <v>0.2872870409177082</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>40</v>
@@ -3178,19 +3178,19 @@
         <v>41859</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>30513</v>
+        <v>30900</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>55429</v>
+        <v>53719</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2161106879808283</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.157535467062925</v>
+        <v>0.1595338268626357</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2861716064461781</v>
+        <v>0.2773398734035209</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>65</v>
@@ -3199,19 +3199,19 @@
         <v>68264</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>54933</v>
+        <v>54069</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>84438</v>
+        <v>84033</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2119499406942122</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1705602277509637</v>
+        <v>0.1678766032710259</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2621700707268398</v>
+        <v>0.2609121461039028</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>101977</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>91721</v>
+        <v>91500</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>110669</v>
+        <v>110943</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7943274517602559</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7144360389386378</v>
+        <v>0.7127129590822917</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8620291152045056</v>
+        <v>0.8641658387616558</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>142</v>
@@ -3249,19 +3249,19 @@
         <v>151833</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>138263</v>
+        <v>139973</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>163179</v>
+        <v>162792</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7838893120191717</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7138283935538222</v>
+        <v>0.722660126596479</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8424645329370753</v>
+        <v>0.8404661731373643</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>237</v>
@@ -3270,19 +3270,19 @@
         <v>253811</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>237637</v>
+        <v>238042</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>267142</v>
+        <v>268006</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7880500593057879</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7378299292731602</v>
+        <v>0.7390878538960971</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8294397722490363</v>
+        <v>0.8321233967289741</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>29209</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>20532</v>
+        <v>20584</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>40273</v>
+        <v>40238</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2568192171153749</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.180524962839655</v>
+        <v>0.1809838330924149</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3540981512759811</v>
+        <v>0.3537913666031338</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>28</v>
@@ -3395,19 +3395,19 @@
         <v>29968</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>20432</v>
+        <v>20473</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>41677</v>
+        <v>41460</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1548418635796496</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1055664164844036</v>
+        <v>0.105778494382089</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2153388184362216</v>
+        <v>0.2142191234949775</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>54</v>
@@ -3416,19 +3416,19 @@
         <v>59178</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>45612</v>
+        <v>45529</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>73940</v>
+        <v>74663</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1925876595247316</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1484401987586883</v>
+        <v>0.1481705295691727</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2406285343671176</v>
+        <v>0.2429819052542612</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>84526</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>73462</v>
+        <v>73497</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>93203</v>
+        <v>93151</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7431807828846252</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6459018487240187</v>
+        <v>0.646208633396867</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.819475037160345</v>
+        <v>0.8190161669075853</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>142</v>
@@ -3466,19 +3466,19 @@
         <v>163574</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>151865</v>
+        <v>152082</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>173110</v>
+        <v>173069</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8451581364203504</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7846611815637783</v>
+        <v>0.7857808765050219</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8944335835155962</v>
+        <v>0.8942215056179109</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>216</v>
@@ -3487,19 +3487,19 @@
         <v>248099</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>233337</v>
+        <v>232614</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>261665</v>
+        <v>261748</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8074123404752683</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7593714656328824</v>
+        <v>0.7570180947457388</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8515598012413117</v>
+        <v>0.8518294704308274</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>25634</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>17897</v>
+        <v>17546</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>35854</v>
+        <v>35252</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1982978240055394</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1384431386866387</v>
+        <v>0.1357291771729367</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2773594814828891</v>
+        <v>0.2727021002489655</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>28</v>
@@ -3612,19 +3612,19 @@
         <v>30564</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>21104</v>
+        <v>21423</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>41835</v>
+        <v>42947</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.190254657620934</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1313660322190607</v>
+        <v>0.1333543152016413</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2604130686577795</v>
+        <v>0.267339338446689</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>53</v>
@@ -3633,19 +3633,19 @@
         <v>56198</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>44207</v>
+        <v>42467</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>71882</v>
+        <v>71110</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.193840995315051</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1524804986987341</v>
+        <v>0.1464807083608045</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2479419963119419</v>
+        <v>0.2452764788726003</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>103636</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>93416</v>
+        <v>94018</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>111373</v>
+        <v>111724</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8017021759944606</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7226405185171106</v>
+        <v>0.7272978997510344</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8615568613133613</v>
+        <v>0.8642708228270632</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>121</v>
@@ -3683,19 +3683,19 @@
         <v>130083</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>118812</v>
+        <v>117700</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>139543</v>
+        <v>139224</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.809745342379066</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7395869313422206</v>
+        <v>0.732660661553311</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8686339677809394</v>
+        <v>0.8666456847983588</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>214</v>
@@ -3704,19 +3704,19 @@
         <v>233718</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>218034</v>
+        <v>218806</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>245709</v>
+        <v>247449</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8061590046849489</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7520580036880581</v>
+        <v>0.7547235211273997</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.847519501301266</v>
+        <v>0.8535192916391956</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>33845</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>24403</v>
+        <v>23785</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>45212</v>
+        <v>46042</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2502091214579993</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1804088453894588</v>
+        <v>0.1758391042282008</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3342489296640864</v>
+        <v>0.3403815242242693</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>30</v>
@@ -3829,19 +3829,19 @@
         <v>30405</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>22264</v>
+        <v>21563</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>41156</v>
+        <v>41500</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1976621932757937</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1447403835253526</v>
+        <v>0.1401827706846193</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2675541641069407</v>
+        <v>0.2697883482904601</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>61</v>
@@ -3850,19 +3850,19 @@
         <v>64249</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>49831</v>
+        <v>51852</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>79576</v>
+        <v>80568</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2222490274507078</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1723740381680414</v>
+        <v>0.1793639619844026</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2752665543560616</v>
+        <v>0.2786977662552775</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>101420</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>90053</v>
+        <v>89223</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>110862</v>
+        <v>111480</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7497908785420007</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6657510703359137</v>
+        <v>0.6596184757757311</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8195911546105413</v>
+        <v>0.8241608957717995</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>123</v>
@@ -3900,19 +3900,19 @@
         <v>123418</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>112667</v>
+        <v>112323</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>131559</v>
+        <v>132260</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8023378067242063</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7324458358930592</v>
+        <v>0.7302116517095389</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8552596164746471</v>
+        <v>0.8598172293153805</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>215</v>
@@ -3921,19 +3921,19 @@
         <v>224838</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>209511</v>
+        <v>208519</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>239256</v>
+        <v>237235</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7777509725492922</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7247334456439385</v>
+        <v>0.7213022337447225</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8276259618319587</v>
+        <v>0.8206360380155974</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>17541</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>10508</v>
+        <v>10417</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>27736</v>
+        <v>27150</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1534940787933453</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09194926117716154</v>
+        <v>0.09115575210300964</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2426991903637351</v>
+        <v>0.2375766914031024</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>22</v>
@@ -4046,19 +4046,19 @@
         <v>24026</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>15231</v>
+        <v>15163</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>34968</v>
+        <v>34728</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1268232466383428</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08039597456116136</v>
+        <v>0.08004059095315783</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1845816609838207</v>
+        <v>0.1833159912123576</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>38</v>
@@ -4067,19 +4067,19 @@
         <v>41567</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>30650</v>
+        <v>30661</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>55890</v>
+        <v>54905</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1368584912931907</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1009144562888688</v>
+        <v>0.1009515066574504</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1840177472862025</v>
+        <v>0.1807718760109342</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>96739</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>86544</v>
+        <v>87130</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>103772</v>
+        <v>103863</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8465059212066547</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7573008096362649</v>
+        <v>0.7624233085968977</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9080507388228385</v>
+        <v>0.9088442478969905</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>148</v>
@@ -4117,19 +4117,19 @@
         <v>165418</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>154476</v>
+        <v>154716</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>174213</v>
+        <v>174281</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8731767533616572</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8154183390161793</v>
+        <v>0.8166840087876419</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9196040254388387</v>
+        <v>0.9199594090468421</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>233</v>
@@ -4138,19 +4138,19 @@
         <v>262156</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>247833</v>
+        <v>248818</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>273073</v>
+        <v>273062</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8631415087068093</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8159822527137975</v>
+        <v>0.8192281239890657</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8990855437111313</v>
+        <v>0.8990484933425495</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>163088</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>141122</v>
+        <v>141071</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>186859</v>
+        <v>189390</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2090500595025294</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1808934298997096</v>
+        <v>0.1808275698810946</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2395201301574019</v>
+        <v>0.2427637204436983</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>202</v>
@@ -4263,19 +4263,19 @@
         <v>213308</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>186460</v>
+        <v>186803</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>240512</v>
+        <v>240860</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1849282276401104</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1616521428877156</v>
+        <v>0.1619494305958766</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2085130572468187</v>
+        <v>0.2088141190868634</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>354</v>
@@ -4284,19 +4284,19 @@
         <v>376396</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>341626</v>
+        <v>341184</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>414705</v>
+        <v>413466</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1946605266301123</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1766784060125891</v>
+        <v>0.1764496197126491</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.214472366034318</v>
+        <v>0.2138316289431503</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>617052</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>593281</v>
+        <v>590750</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>639018</v>
+        <v>639069</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7909499404974706</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7604798698425982</v>
+        <v>0.7572362795563019</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8191065701002904</v>
+        <v>0.8191724301189055</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>872</v>
@@ -4334,19 +4334,19 @@
         <v>940156</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>912952</v>
+        <v>912604</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>967004</v>
+        <v>966661</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8150717723598896</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7914869427531812</v>
+        <v>0.7911858809131365</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8383478571122843</v>
+        <v>0.8380505694041234</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1437</v>
@@ -4355,19 +4355,19 @@
         <v>1557208</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1518899</v>
+        <v>1520138</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1591978</v>
+        <v>1592420</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8053394733698878</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7855276339656824</v>
+        <v>0.7861683710568497</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.823321593987411</v>
+        <v>0.8235503802873508</v>
       </c>
     </row>
     <row r="27">
@@ -4702,19 +4702,19 @@
         <v>10355</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5609</v>
+        <v>4995</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17030</v>
+        <v>17563</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1521294374929897</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08240207840770418</v>
+        <v>0.07338915259229525</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2502033734991679</v>
+        <v>0.2580307535705136</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>20</v>
@@ -4723,19 +4723,19 @@
         <v>19457</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12405</v>
+        <v>12558</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>27905</v>
+        <v>27050</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2084569251317615</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1329085604584901</v>
+        <v>0.1345424203392931</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2989656129349609</v>
+        <v>0.2898087105732639</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>30</v>
@@ -4744,19 +4744,19 @@
         <v>29811</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>21151</v>
+        <v>20740</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>40952</v>
+        <v>40262</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1847027685995846</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1310472415607711</v>
+        <v>0.1284984945121312</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2537240162474307</v>
+        <v>0.2494496443319862</v>
       </c>
     </row>
     <row r="5">
@@ -4773,19 +4773,19 @@
         <v>57711</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>51036</v>
+        <v>50503</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>62457</v>
+        <v>63071</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8478705625070103</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7497966265008321</v>
+        <v>0.7419692464294869</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9175979215922961</v>
+        <v>0.9266108474077047</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>76</v>
@@ -4794,19 +4794,19 @@
         <v>73880</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>65432</v>
+        <v>66287</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>80932</v>
+        <v>80779</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7915430748682385</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7010343870650393</v>
+        <v>0.7101912894267364</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8670914395415099</v>
+        <v>0.8654575796607069</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>132</v>
@@ -4815,19 +4815,19 @@
         <v>131591</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>120450</v>
+        <v>121140</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>140251</v>
+        <v>140662</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8152972314004153</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7462759837525689</v>
+        <v>0.750550355668014</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8689527584392289</v>
+        <v>0.8715015054878689</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>19407</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11698</v>
+        <v>12871</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>27916</v>
+        <v>29433</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2126655304827451</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1281871870043877</v>
+        <v>0.1410461355993582</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3059127124808085</v>
+        <v>0.3225344522095916</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>32</v>
@@ -4940,19 +4940,19 @@
         <v>32518</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>22988</v>
+        <v>23567</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>43215</v>
+        <v>44060</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2057389305862221</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1454454794195213</v>
+        <v>0.1491044106568517</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2734188155486473</v>
+        <v>0.2787653728503651</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>50</v>
@@ -4961,19 +4961,19 @@
         <v>51924</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>40487</v>
+        <v>40110</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>67144</v>
+        <v>65747</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2082742826725876</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.162399496244349</v>
+        <v>0.1608871770597008</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2693209486839698</v>
+        <v>0.2637167040408422</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>71848</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>63339</v>
+        <v>61822</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>79557</v>
+        <v>78384</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7873344695172549</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6940872875191926</v>
+        <v>0.677465547790409</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8718128129956123</v>
+        <v>0.8589538644006419</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>129</v>
@@ -5011,19 +5011,19 @@
         <v>125536</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>114839</v>
+        <v>113994</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>135066</v>
+        <v>134487</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7942610694137779</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7265811844513529</v>
+        <v>0.7212346271496349</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8545545205804788</v>
+        <v>0.850895589343148</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>197</v>
@@ -5032,19 +5032,19 @@
         <v>197384</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>182164</v>
+        <v>183561</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>208821</v>
+        <v>209198</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7917257173274124</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7306790513160303</v>
+        <v>0.7362832959591593</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8376005037556511</v>
+        <v>0.8391128229402992</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>29760</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21031</v>
+        <v>20824</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>41474</v>
+        <v>42064</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2051198056668032</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.144958200212069</v>
+        <v>0.1435311308204825</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2858613627830692</v>
+        <v>0.2899291245344143</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>39</v>
@@ -5157,19 +5157,19 @@
         <v>39402</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>28754</v>
+        <v>29100</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>51352</v>
+        <v>50974</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2265015901051055</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1652943750801369</v>
+        <v>0.1672815060868008</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2951977420937015</v>
+        <v>0.2930289164529721</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>66</v>
@@ -5178,19 +5178,19 @@
         <v>69161</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>53257</v>
+        <v>55034</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>84906</v>
+        <v>83570</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2167782293497255</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1669282636179531</v>
+        <v>0.1724983451239572</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2661294586632825</v>
+        <v>0.2619410393127702</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>115324</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>103610</v>
+        <v>103020</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>124053</v>
+        <v>124260</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7948801943331968</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7141386372169307</v>
+        <v>0.7100708754655854</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8550417997879309</v>
+        <v>0.8564688691795174</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>137</v>
@@ -5228,19 +5228,19 @@
         <v>134555</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>122605</v>
+        <v>122983</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>145203</v>
+        <v>144857</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7734984098948945</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7048022579062986</v>
+        <v>0.7069710835470279</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8347056249198632</v>
+        <v>0.8327184939131992</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>242</v>
@@ -5249,19 +5249,19 @@
         <v>249881</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>234136</v>
+        <v>235472</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>265785</v>
+        <v>264008</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7832217706502744</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7338705413367174</v>
+        <v>0.7380589606872298</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8330717363820469</v>
+        <v>0.8275016548760428</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>28701</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>20016</v>
+        <v>19639</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>40434</v>
+        <v>41302</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1725476524725452</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1203326439541384</v>
+        <v>0.1180661180480303</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2430807406089673</v>
+        <v>0.248299488947643</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>29</v>
@@ -5374,19 +5374,19 @@
         <v>29842</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>21376</v>
+        <v>20075</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>40541</v>
+        <v>40845</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.164160182413716</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1175918608074307</v>
+        <v>0.1104335502103173</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2230166939854925</v>
+        <v>0.2246866851240892</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>54</v>
@@ -5395,19 +5395,19 @@
         <v>58543</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>45437</v>
+        <v>45230</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>76157</v>
+        <v>74952</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1681678371952047</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1305199684171397</v>
+        <v>0.1299261396476205</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2187634483137234</v>
+        <v>0.2153019743115858</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>137638</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>125905</v>
+        <v>125037</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>146323</v>
+        <v>146700</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8274523475274548</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7569192593910329</v>
+        <v>0.7517005110523571</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8796673560458617</v>
+        <v>0.8819338819519698</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>140</v>
@@ -5445,19 +5445,19 @@
         <v>151943</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>141244</v>
+        <v>140940</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>160409</v>
+        <v>161710</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.835839817586284</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7769833060145075</v>
+        <v>0.7753133148759108</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8824081391925693</v>
+        <v>0.8895664497896829</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>262</v>
@@ -5466,19 +5466,19 @@
         <v>289581</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>271967</v>
+        <v>273172</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>302687</v>
+        <v>302894</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8318321628047953</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7812365516862767</v>
+        <v>0.7846980256884142</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8694800315828601</v>
+        <v>0.8700738603523794</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>25103</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>16792</v>
+        <v>16976</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>37296</v>
+        <v>37684</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1767736028865514</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1182473577036083</v>
+        <v>0.1195416781934671</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2626360452890014</v>
+        <v>0.2653625121464439</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>35</v>
@@ -5591,19 +5591,19 @@
         <v>41819</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>29906</v>
+        <v>30953</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>54207</v>
+        <v>54925</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2130884759529838</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1523840565176618</v>
+        <v>0.1577189213656141</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2762136502066589</v>
+        <v>0.2798681280424426</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>57</v>
@@ -5612,19 +5612,19 @@
         <v>66923</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>53169</v>
+        <v>50987</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>85169</v>
+        <v>83594</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1978428004069163</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1571822356333853</v>
+        <v>0.1507328273929323</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2517839307086996</v>
+        <v>0.2471277476313263</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>116905</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>104712</v>
+        <v>104324</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>125216</v>
+        <v>125032</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8232263971134486</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7373639547109986</v>
+        <v>0.7346374878535564</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8817526422963916</v>
+        <v>0.8804583218065329</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>136</v>
@@ -5662,19 +5662,19 @@
         <v>154433</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>142045</v>
+        <v>141327</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>166346</v>
+        <v>165299</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7869115240470163</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7237863497933413</v>
+        <v>0.7201318719575573</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8476159434823383</v>
+        <v>0.8422810786343859</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>242</v>
@@ -5683,19 +5683,19 @@
         <v>271338</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>253092</v>
+        <v>254667</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>285092</v>
+        <v>287274</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8021571995930836</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7482160692913009</v>
+        <v>0.7528722523686743</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8428177643666148</v>
+        <v>0.8492671726070683</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>26432</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>18089</v>
+        <v>17640</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>36289</v>
+        <v>36131</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2015319737085118</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.13792060686545</v>
+        <v>0.1344961360301747</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2766882679755647</v>
+        <v>0.2754834666541771</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>28</v>
@@ -5808,19 +5808,19 @@
         <v>30220</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>21368</v>
+        <v>20576</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>41084</v>
+        <v>43112</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1627397228511314</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1150695025563772</v>
+        <v>0.1108074660115611</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2212425026706153</v>
+        <v>0.2321638635164903</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>54</v>
@@ -5829,19 +5829,19 @@
         <v>56652</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>42709</v>
+        <v>44067</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>70486</v>
+        <v>71329</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1787972138063554</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1347930072406373</v>
+        <v>0.1390783868942078</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2224578675096494</v>
+        <v>0.2251198306369752</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>104724</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>94867</v>
+        <v>95025</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>113067</v>
+        <v>113516</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7984680262914882</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7233117320244353</v>
+        <v>0.7245165333458229</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.86207939313455</v>
+        <v>0.8655038639698254</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>145</v>
@@ -5879,19 +5879,19 @@
         <v>155475</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>144611</v>
+        <v>142583</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>164327</v>
+        <v>165119</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8372602771488685</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7787574973293845</v>
+        <v>0.767836136483509</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8849304974436227</v>
+        <v>0.8891925339884389</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>247</v>
@@ -5900,19 +5900,19 @@
         <v>260199</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>246365</v>
+        <v>245522</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>274142</v>
+        <v>272784</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8212027861936446</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7775421324903506</v>
+        <v>0.7748801693630247</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8652069927593624</v>
+        <v>0.8609216131057921</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>16194</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>10245</v>
+        <v>10002</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>24354</v>
+        <v>23978</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1503251366375673</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09510638436831223</v>
+        <v>0.09285102476641974</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.226076052250335</v>
+        <v>0.2225869023338324</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>21</v>
@@ -6025,19 +6025,19 @@
         <v>27626</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>17854</v>
+        <v>18303</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>39911</v>
+        <v>40252</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1576501983225887</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1018849659887823</v>
+        <v>0.104444657685453</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2277493458636084</v>
+        <v>0.2296950509471965</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>39</v>
@@ -6046,19 +6046,19 @@
         <v>43820</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>31446</v>
+        <v>31660</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>57422</v>
+        <v>56566</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1548615097903951</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1111319793510081</v>
+        <v>0.1118857649208152</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2029305511112506</v>
+        <v>0.1999031703066682</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>91532</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>83372</v>
+        <v>83748</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>97481</v>
+        <v>97724</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8496748633624327</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7739239477496652</v>
+        <v>0.7774130976661676</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9048936156316878</v>
+        <v>0.9071489752335804</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>110</v>
@@ -6096,19 +6096,19 @@
         <v>147613</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>135328</v>
+        <v>134987</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>157385</v>
+        <v>156936</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8423498016774112</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7722506541363915</v>
+        <v>0.7703049490528032</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8981150340112177</v>
+        <v>0.8955553423145469</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>217</v>
@@ -6117,19 +6117,19 @@
         <v>239145</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>225543</v>
+        <v>226399</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>251519</v>
+        <v>251305</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.845138490209605</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7970694488887495</v>
+        <v>0.8000968296933317</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.888868020648992</v>
+        <v>0.8881142350791847</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>155952</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>134560</v>
+        <v>136064</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>180330</v>
+        <v>179774</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1831208474244457</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1580025727371087</v>
+        <v>0.1597679792348446</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2117459338961136</v>
+        <v>0.2110929027092891</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>204</v>
@@ -6242,19 +6242,19 @@
         <v>220884</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>194464</v>
+        <v>194773</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>249524</v>
+        <v>250721</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1897104246343916</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1670190070277227</v>
+        <v>0.167284574016407</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2143085238090158</v>
+        <v>0.2153364614036035</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>350</v>
@@ -6263,19 +6263,19 @@
         <v>376835</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>340554</v>
+        <v>341487</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>411565</v>
+        <v>414414</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1869266763693868</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1689293101385861</v>
+        <v>0.1693921873062321</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2041539121687123</v>
+        <v>0.2055670889741136</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>695682</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>671304</v>
+        <v>671860</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>717074</v>
+        <v>715570</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8168791525755543</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7882540661038867</v>
+        <v>0.7889070972907108</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8419974272628913</v>
+        <v>0.8402320207651554</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>873</v>
@@ -6313,19 +6313,19 @@
         <v>943436</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>914796</v>
+        <v>913599</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>969856</v>
+        <v>969547</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8102895753656084</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7856914761909839</v>
+        <v>0.7846635385963966</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8329809929722773</v>
+        <v>0.832715425983593</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1539</v>
@@ -6334,19 +6334,19 @@
         <v>1639118</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1604388</v>
+        <v>1601539</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1675399</v>
+        <v>1674466</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8130733236306131</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7958460878312876</v>
+        <v>0.7944329110258864</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8310706898614139</v>
+        <v>0.8306078126937679</v>
       </c>
     </row>
     <row r="27">
@@ -6684,7 +6684,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13513</v>
+        <v>13978</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1083349458856707</v>
@@ -6693,7 +6693,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4786410941150089</v>
+        <v>0.4950939961636718</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -6702,19 +6702,19 @@
         <v>28067</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>17535</v>
+        <v>16899</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>39769</v>
+        <v>38635</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.4310444113823843</v>
+        <v>0.4310444113823844</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2693012405179185</v>
+        <v>0.2595323333189817</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6107631320368645</v>
+        <v>0.5933568706797564</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>16</v>
@@ -6723,19 +6723,19 @@
         <v>31125</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>20064</v>
+        <v>18701</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>44872</v>
+        <v>45440</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.3334386345264417</v>
+        <v>0.3334386345264418</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.214943361759093</v>
+        <v>0.2003354260612037</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4807032214665685</v>
+        <v>0.4867857519121648</v>
       </c>
     </row>
     <row r="5">
@@ -6752,7 +6752,7 @@
         <v>25174</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>14720</v>
+        <v>14255</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>28233</v>
@@ -6761,7 +6761,7 @@
         <v>0.8916650541143294</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5213589058849866</v>
+        <v>0.5049060038363271</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -6773,19 +6773,19 @@
         <v>37046</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>25344</v>
+        <v>26478</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>47578</v>
+        <v>48214</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5689555886176156</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3892368679631353</v>
+        <v>0.4066431293202435</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7306987594820813</v>
+        <v>0.740467666681018</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>32</v>
@@ -6794,19 +6794,19 @@
         <v>62222</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>48475</v>
+        <v>47907</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>73283</v>
+        <v>74646</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.6665613654735583</v>
+        <v>0.6665613654735582</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5192967785334314</v>
+        <v>0.5132142480878351</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.785056638240907</v>
+        <v>0.7996645739387962</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>16448</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7663</v>
+        <v>7240</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>27592</v>
+        <v>28433</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.2011941624316857</v>
+        <v>0.2011941624316858</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09373330437743156</v>
+        <v>0.08855485985165357</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.337503330869597</v>
+        <v>0.3477942692941902</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>22</v>
@@ -6919,19 +6919,19 @@
         <v>23981</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>16015</v>
+        <v>15457</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>35405</v>
+        <v>35233</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.2164636865736194</v>
+        <v>0.2164636865736195</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1445567231655726</v>
+        <v>0.1395219536384087</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3195899494033296</v>
+        <v>0.3180307721934826</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>31</v>
@@ -6940,19 +6940,19 @@
         <v>40429</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>28480</v>
+        <v>28015</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>55590</v>
+        <v>55447</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2099801662419793</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.147922623002584</v>
+        <v>0.1455032142469398</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2887277051462927</v>
+        <v>0.2879830949644512</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>65304</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>54160</v>
+        <v>53319</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>74089</v>
+        <v>74512</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7988058375683144</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6624966691304032</v>
+        <v>0.6522057307058094</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9062666956225685</v>
+        <v>0.9114451401483464</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>79</v>
@@ -6990,19 +6990,19 @@
         <v>86803</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>75379</v>
+        <v>75551</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>94769</v>
+        <v>95327</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7835363134263804</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6804100505966708</v>
+        <v>0.6819692278065183</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8554432768344273</v>
+        <v>0.8604780463615912</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>121</v>
@@ -7011,19 +7011,19 @@
         <v>152107</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>136946</v>
+        <v>137089</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>164056</v>
+        <v>164521</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7900198337580207</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7112722948537068</v>
+        <v>0.712016905035549</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8520773769974159</v>
+        <v>0.8544967857530603</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>19184</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11847</v>
+        <v>11315</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>28838</v>
+        <v>28818</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2116485570350773</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1306973634419232</v>
+        <v>0.1248267044562739</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3181477943023776</v>
+        <v>0.3179299221273413</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>51</v>
@@ -7136,19 +7136,19 @@
         <v>37327</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>28194</v>
+        <v>29350</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>46720</v>
+        <v>47043</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.2790805317616957</v>
+        <v>0.2790805317616956</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2108015392438863</v>
+        <v>0.2194415741120723</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3493112963969133</v>
+        <v>0.3517231651249061</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>67</v>
@@ -7157,19 +7157,19 @@
         <v>56511</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>45034</v>
+        <v>44193</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>68677</v>
+        <v>69242</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2518414036099768</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2006952577631647</v>
+        <v>0.1969456382000665</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3060581735374571</v>
+        <v>0.3085740732968634</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>71459</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>61805</v>
+        <v>61825</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>78796</v>
+        <v>79328</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7883514429649228</v>
+        <v>0.7883514429649227</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6818522056976216</v>
+        <v>0.6820700778726588</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8693026365580766</v>
+        <v>0.8751732955437262</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>132</v>
@@ -7207,19 +7207,19 @@
         <v>96422</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>87029</v>
+        <v>86706</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>105555</v>
+        <v>104399</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.7209194682383044</v>
+        <v>0.7209194682383043</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6506887036030865</v>
+        <v>0.6482768348750939</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7891984607561139</v>
+        <v>0.7805584258879277</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>193</v>
@@ -7228,19 +7228,19 @@
         <v>167881</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>155715</v>
+        <v>155150</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>179358</v>
+        <v>180199</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7481585963900232</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6939418264625429</v>
+        <v>0.6914259267031367</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7993047422368353</v>
+        <v>0.8030543617999335</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>39731</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>29636</v>
+        <v>29533</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>51748</v>
+        <v>52421</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.284547883099568</v>
+        <v>0.2845478830995681</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2122489238231204</v>
+        <v>0.2115149302586798</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3706143721398366</v>
+        <v>0.3754385981303243</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>76</v>
@@ -7353,19 +7353,19 @@
         <v>49959</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>40056</v>
+        <v>40726</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>59592</v>
+        <v>60232</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.2798198256597296</v>
+        <v>0.2798198256597295</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2243544288556402</v>
+        <v>0.2281022621215722</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3337699801157908</v>
+        <v>0.3373560487889449</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>112</v>
@@ -7374,19 +7374,19 @@
         <v>89690</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>75524</v>
+        <v>76176</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>104217</v>
+        <v>105941</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2818947205669734</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2373717522169876</v>
+        <v>0.2394199204580489</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3275512920126252</v>
+        <v>0.3329713117162421</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>99896</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>87879</v>
+        <v>87206</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>109991</v>
+        <v>110094</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7154521169004319</v>
+        <v>0.7154521169004321</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6293856278601639</v>
+        <v>0.6245614018696753</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7877510761768797</v>
+        <v>0.7884850697413199</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>195</v>
@@ -7424,19 +7424,19 @@
         <v>128582</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>118949</v>
+        <v>118309</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>138485</v>
+        <v>137815</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7201801743402706</v>
+        <v>0.7201801743402704</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6662300198842092</v>
+        <v>0.6626439512110551</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7756455711443597</v>
+        <v>0.771897737878428</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>285</v>
@@ -7445,19 +7445,19 @@
         <v>228479</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>213952</v>
+        <v>212228</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>242645</v>
+        <v>241993</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7181052794330265</v>
+        <v>0.7181052794330264</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6724487079873748</v>
+        <v>0.6670286882837574</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7626282477830123</v>
+        <v>0.7605800795419513</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>40976</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>31594</v>
+        <v>31148</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>52380</v>
+        <v>51762</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2883124367692994</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2223044693765158</v>
+        <v>0.219162421299075</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3685557055708569</v>
+        <v>0.3642109371772661</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>65</v>
@@ -7570,19 +7570,19 @@
         <v>40692</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>32728</v>
+        <v>32370</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>49382</v>
+        <v>49709</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2578580835803993</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2073929077949897</v>
+        <v>0.2051189423783646</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.312920023250165</v>
+        <v>0.3149963841372105</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>109</v>
@@ -7591,19 +7591,19 @@
         <v>81668</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>68199</v>
+        <v>68906</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>94554</v>
+        <v>95910</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2722888409344137</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2273831678645446</v>
+        <v>0.2297407312022182</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3152540384837024</v>
+        <v>0.3197737519318761</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>101146</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>89742</v>
+        <v>90360</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>110528</v>
+        <v>110974</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7116875632307007</v>
+        <v>0.7116875632307006</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6314442944291431</v>
+        <v>0.635789062822734</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7776955306234838</v>
+        <v>0.7808375787009253</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>186</v>
@@ -7641,19 +7641,19 @@
         <v>117117</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>108427</v>
+        <v>108100</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>125081</v>
+        <v>125439</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7421419164196008</v>
+        <v>0.7421419164196007</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6870799767498357</v>
+        <v>0.6850036158627897</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7926070922050102</v>
+        <v>0.794881057621636</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>296</v>
@@ -7662,19 +7662,19 @@
         <v>218263</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>205377</v>
+        <v>204021</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>231732</v>
+        <v>231025</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.7277111590655863</v>
+        <v>0.7277111590655861</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6847459615162973</v>
+        <v>0.6802262480681244</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7726168321354556</v>
+        <v>0.7702592687977821</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>25517</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>18554</v>
+        <v>18125</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>34058</v>
+        <v>34112</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.2205313132067894</v>
+        <v>0.2205313132067893</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1603582755612715</v>
+        <v>0.1566458510576926</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2943532458792443</v>
+        <v>0.2948195906826867</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>38</v>
@@ -7787,19 +7787,19 @@
         <v>20539</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>14751</v>
+        <v>15415</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>27135</v>
+        <v>28302</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.1518270216553258</v>
+        <v>0.1518270216553259</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1090388002657779</v>
+        <v>0.1139486059098789</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2005786300943847</v>
+        <v>0.2092061703769575</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>74</v>
@@ -7808,19 +7808,19 @@
         <v>46056</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>37720</v>
+        <v>36195</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>56518</v>
+        <v>56377</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1834998034336176</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1502854746154662</v>
+        <v>0.1442119057501834</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2251828275139157</v>
+        <v>0.2246212399179811</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>90189</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>81648</v>
+        <v>81594</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>97152</v>
+        <v>97581</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7794686867932108</v>
+        <v>0.7794686867932106</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7056467541207559</v>
+        <v>0.7051804093173134</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8396417244387288</v>
+        <v>0.8433541489423074</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>210</v>
@@ -7858,19 +7858,19 @@
         <v>114743</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>108147</v>
+        <v>106980</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>120531</v>
+        <v>119867</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.848172978344674</v>
+        <v>0.8481729783446743</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7994213699056153</v>
+        <v>0.7907938296230428</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8909611997342219</v>
+        <v>0.8860513940901212</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>333</v>
@@ -7879,19 +7879,19 @@
         <v>204931</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>194469</v>
+        <v>194610</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>213267</v>
+        <v>214792</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8165001965663823</v>
+        <v>0.8165001965663825</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7748171724860843</v>
+        <v>0.7753787600820193</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8497145253845338</v>
+        <v>0.8557880942498174</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>22397</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>15094</v>
+        <v>14758</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>29535</v>
+        <v>29357</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2491680618347929</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1679254500237259</v>
+        <v>0.1641879932489919</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3285849381877873</v>
+        <v>0.3266024329285884</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>35</v>
@@ -8004,19 +8004,19 @@
         <v>19228</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>13759</v>
+        <v>13300</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>26331</v>
+        <v>25982</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1330157332732149</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09517982747314824</v>
+        <v>0.09200368598980688</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1821506680063324</v>
+        <v>0.1797367374678796</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>66</v>
@@ -8025,19 +8025,19 @@
         <v>41625</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>32437</v>
+        <v>33542</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>51349</v>
+        <v>51821</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1775494148782777</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1383602956671697</v>
+        <v>0.1430709114182421</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2190281211971171</v>
+        <v>0.2210429116783644</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>67489</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>60351</v>
+        <v>60529</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>74792</v>
+        <v>75128</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.750831938165207</v>
+        <v>0.7508319381652071</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6714150618122128</v>
+        <v>0.6733975670714119</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8320745499762736</v>
+        <v>0.8358120067510081</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>225</v>
@@ -8075,19 +8075,19 @@
         <v>125326</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>118223</v>
+        <v>118572</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>130795</v>
+        <v>131254</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.8669842667267851</v>
+        <v>0.8669842667267849</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8178493319936677</v>
+        <v>0.8202632625321202</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9048201725268517</v>
+        <v>0.907996314010193</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>325</v>
@@ -8096,19 +8096,19 @@
         <v>192815</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>183091</v>
+        <v>182619</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>202003</v>
+        <v>200898</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8224505851217223</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7809718788028823</v>
+        <v>0.7789570883216355</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8616397043328302</v>
+        <v>0.8569290885817579</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>167311</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>145097</v>
+        <v>145143</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>191093</v>
+        <v>192780</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2431951222482862</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.210906192091783</v>
+        <v>0.2109730197393642</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2777640469241986</v>
+        <v>0.2802157434847198</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>302</v>
@@ -8221,19 +8221,19 @@
         <v>219793</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>196895</v>
+        <v>199512</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>242527</v>
+        <v>242296</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2374007241130298</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2126676159175613</v>
+        <v>0.2154949997950336</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2619549219003032</v>
+        <v>0.2617060293260219</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>475</v>
@@ -8242,19 +8242,19 @@
         <v>387104</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>357186</v>
+        <v>357610</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>419943</v>
+        <v>418489</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2398708960855924</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2213319368240826</v>
+        <v>0.2215944788345659</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2602195410958003</v>
+        <v>0.259318435965561</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>520658</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>496876</v>
+        <v>495189</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>542872</v>
+        <v>542826</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7568048777517139</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7222359530758016</v>
+        <v>0.7197842565152799</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7890938079082169</v>
+        <v>0.7890269802606358</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1048</v>
@@ -8292,19 +8292,19 @@
         <v>706040</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>683306</v>
+        <v>683537</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>728938</v>
+        <v>726321</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7625992758869702</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7380450780996968</v>
+        <v>0.738293970673978</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7873323840824389</v>
+        <v>0.7845050002049664</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1585</v>
@@ -8313,19 +8313,19 @@
         <v>1226698</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1193859</v>
+        <v>1195313</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1256616</v>
+        <v>1256192</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.7601291039144075</v>
+        <v>0.7601291039144076</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7397804589041997</v>
+        <v>0.7406815640344392</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7786680631759174</v>
+        <v>0.7784055211654339</v>
       </c>
     </row>
     <row r="27">
